--- a/COMM/COMM_modalities.xlsx
+++ b/COMM/COMM_modalities.xlsx
@@ -1,84 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fmixson\PycharmProjects\DivisionEnrollment\COMM\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D572A75-4AD3-41B8-B53E-B9E1397A4E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Modality</t>
-  </si>
-  <si>
-    <t>Hybrid Course</t>
-  </si>
-  <si>
-    <t>In Person</t>
-  </si>
-  <si>
-    <t>Online Course</t>
-  </si>
-  <si>
-    <t>Remote Course</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -87,46 +46,121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -414,145 +448,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Modality</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hybrid Course</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>258</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>453</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.3125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>In Person</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Online Course</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1561</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.3859649122807</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1694</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.71929824561403</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Remote Course</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" t="n">
+        <v>65</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="E7" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>260</v>
-      </c>
-      <c r="D4">
-        <v>16.25</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>453</v>
-      </c>
-      <c r="G4">
-        <v>28.3125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>11.25</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>60</v>
-      </c>
-      <c r="G5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>1573</v>
-      </c>
-      <c r="D6">
-        <v>27.596491228070171</v>
-      </c>
-      <c r="E6">
-        <v>57</v>
-      </c>
-      <c r="F6">
-        <v>1694</v>
-      </c>
-      <c r="G6">
-        <v>29.719298245614031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>21.666666666666671</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>62</v>
       </c>
-      <c r="G7">
-        <v>20.666666666666671</v>
+      <c r="G7" t="n">
+        <v>20.66666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/COMM/COMM_modalities.xlsx
+++ b/COMM/COMM_modalities.xlsx
@@ -528,10 +528,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D4" t="n">
-        <v>16.125</v>
+        <v>16.0625</v>
       </c>
       <c r="E4" t="n">
         <v>16</v>
@@ -553,10 +553,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -578,10 +578,10 @@
         <v>57</v>
       </c>
       <c r="C6" t="n">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3859649122807</v>
+        <v>27.26315789473684</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>

--- a/COMM/COMM_modalities.xlsx
+++ b/COMM/COMM_modalities.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,108 +514,154 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Modality</t>
+          <t>Room</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Hybrid Course</t>
-        </is>
-      </c>
+      <c r="A4" s="1" t="inlineStr"/>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0625</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>453</v>
+        <v>60</v>
       </c>
       <c r="G4" t="n">
-        <v>28.3125</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>In Person</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Online Course</t>
+          <t>In Person</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>1554</v>
+        <v>440</v>
       </c>
       <c r="D6" t="n">
-        <v>27.26315789473684</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>1694</v>
+        <v>901</v>
       </c>
       <c r="G6" t="n">
-        <v>29.71929824561403</v>
+        <v>27.3030303030303</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Remote Course</t>
+          <t>ONLINE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>65</v>
+        <v>792</v>
       </c>
       <c r="D7" t="n">
-        <v>21.66666666666667</v>
+        <v>17.21739130434782</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="F7" t="n">
+        <v>1341</v>
+      </c>
+      <c r="G7" t="n">
+        <v>29.15217391304348</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>REMOTE</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
         <v>62</v>
       </c>
-      <c r="G7" t="n">
-        <v>20.66666666666667</v>
+      <c r="G8" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>WHS *</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/COMM/COMM_modalities.xlsx
+++ b/COMM/COMM_modalities.xlsx
@@ -524,10 +524,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -574,10 +574,10 @@
         <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D6" t="n">
-        <v>13.33333333333333</v>
+        <v>14.42424242424242</v>
       </c>
       <c r="E6" t="n">
         <v>33</v>
@@ -599,10 +599,10 @@
         <v>46</v>
       </c>
       <c r="C7" t="n">
-        <v>792</v>
+        <v>860</v>
       </c>
       <c r="D7" t="n">
-        <v>17.21739130434782</v>
+        <v>18.69565217391304</v>
       </c>
       <c r="E7" t="n">
         <v>46</v>
@@ -624,10 +624,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
